--- a/Stasiun.xlsx
+++ b/Stasiun.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\OneDrive\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\OneDrive\Documents\RNN Jaya\RNN-Jaya\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A381905B-56E8-4AD9-98BF-B7BAC6AA2859}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A48C37F7-52DF-4CF0-BB9C-6C357F6DC1CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10140" yWindow="0" windowWidth="10455" windowHeight="11625" xr2:uid="{46E7E1EB-F503-4008-B683-FDFB05134706}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
   <si>
     <t>Elevasi</t>
   </si>
@@ -334,6 +334,12 @@
   </si>
   <si>
     <t>Stasiun Meteorologi Karel Sadsuitubun</t>
+  </si>
+  <si>
+    <t>Stasiun Meteorologi Kasiguncu</t>
+  </si>
+  <si>
+    <t>Stasiun Meteorologi Kemayoran</t>
   </si>
 </sst>
 </file>
@@ -734,10 +740,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2832B855-74B0-47B9-BC56-39E57D0F7FFB}">
-  <dimension ref="A1:D101"/>
+  <dimension ref="A1:D102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="A57" sqref="A57"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1522,362 +1528,648 @@
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="2"/>
-      <c r="B57" s="2"/>
-      <c r="C57" s="2"/>
+      <c r="A57" s="2">
+        <v>100.29786</v>
+      </c>
+      <c r="B57" s="2">
+        <v>-0.54549000000000003</v>
+      </c>
+      <c r="C57" s="2">
+        <v>128</v>
+      </c>
       <c r="D57" s="2" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="2"/>
-      <c r="B58" s="2"/>
-      <c r="C58" s="2"/>
+      <c r="A58" s="2">
+        <v>104.77197</v>
+      </c>
+      <c r="B58" s="2">
+        <v>-2.9273199999999999</v>
+      </c>
+      <c r="C58" s="2">
+        <v>11</v>
+      </c>
       <c r="D58" s="2" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="2"/>
-      <c r="B59" s="2"/>
-      <c r="C59" s="2"/>
+      <c r="A59" s="2">
+        <v>98.714849999999998</v>
+      </c>
+      <c r="B59" s="2">
+        <v>3.62114</v>
+      </c>
+      <c r="C59" s="2">
+        <v>25</v>
+      </c>
       <c r="D59" s="2" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="2"/>
-      <c r="B60" s="2"/>
-      <c r="C60" s="2"/>
+      <c r="A60" s="2">
+        <v>99.45</v>
+      </c>
+      <c r="B60" s="2">
+        <v>1.55</v>
+      </c>
+      <c r="C60" s="2">
+        <v>281</v>
+      </c>
       <c r="D60" s="2" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="2"/>
-      <c r="B61" s="2"/>
-      <c r="C61" s="2"/>
+      <c r="A61" s="2">
+        <v>110.37779999999999</v>
+      </c>
+      <c r="B61" s="2">
+        <v>-6.9768299999999996</v>
+      </c>
+      <c r="C61" s="2">
+        <v>5</v>
+      </c>
       <c r="D61" s="2" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="2"/>
-      <c r="B62" s="2"/>
-      <c r="C62" s="2"/>
+      <c r="A62" s="2">
+        <v>117.16</v>
+      </c>
+      <c r="B62" s="2">
+        <v>-0.48</v>
+      </c>
+      <c r="C62" s="2">
+        <v>10</v>
+      </c>
       <c r="D62" s="2" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="2"/>
-      <c r="B63" s="2"/>
-      <c r="C63" s="2"/>
+      <c r="A63" s="2">
+        <v>128.92840000000001</v>
+      </c>
+      <c r="B63" s="2">
+        <v>-3.3464</v>
+      </c>
+      <c r="C63" s="2">
+        <v>10</v>
+      </c>
       <c r="D63" s="2" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="2"/>
-      <c r="B64" s="2"/>
-      <c r="C64" s="2"/>
+      <c r="A64" s="2">
+        <v>120.32422</v>
+      </c>
+      <c r="B64" s="2">
+        <v>-2.5547200000000001</v>
+      </c>
+      <c r="C64" s="2">
+        <v>43</v>
+      </c>
       <c r="D64" s="2" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="2"/>
-      <c r="B65" s="2"/>
-      <c r="C65" s="2"/>
+      <c r="A65" s="2">
+        <v>129.90430000000001</v>
+      </c>
+      <c r="B65" s="2">
+        <v>-4.5233800000000004</v>
+      </c>
+      <c r="C65" s="2">
+        <v>15</v>
+      </c>
       <c r="D65" s="2" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="2"/>
-      <c r="B66" s="2"/>
-      <c r="C66" s="2"/>
+      <c r="A66" s="2">
+        <v>114.3553</v>
+      </c>
+      <c r="B66" s="2">
+        <v>-8.2149999999999999</v>
+      </c>
+      <c r="C66" s="2">
+        <v>52</v>
+      </c>
       <c r="D66" s="2" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="2"/>
-      <c r="B67" s="2"/>
-      <c r="C67" s="2"/>
+      <c r="A67" s="2">
+        <v>114.53</v>
+      </c>
+      <c r="B67" s="2">
+        <v>-0.56000000000000005</v>
+      </c>
+      <c r="C67" s="2">
+        <v>42</v>
+      </c>
       <c r="D67" s="2" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="2"/>
-      <c r="B68" s="2"/>
-      <c r="C68" s="2"/>
+      <c r="A68" s="2">
+        <v>122.62</v>
+      </c>
+      <c r="B68" s="2">
+        <v>-5.47</v>
+      </c>
+      <c r="C68" s="2">
+        <v>233</v>
+      </c>
       <c r="D68" s="2" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="2"/>
-      <c r="B69" s="2"/>
-      <c r="C69" s="2"/>
+      <c r="A69" s="2">
+        <v>97.703599999999994</v>
+      </c>
+      <c r="B69" s="2">
+        <v>1.1649</v>
+      </c>
+      <c r="C69" s="2">
+        <v>7</v>
+      </c>
       <c r="D69" s="2" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="2"/>
-      <c r="B70" s="2"/>
-      <c r="C70" s="2"/>
+      <c r="A70" s="2">
+        <v>106.56389</v>
+      </c>
+      <c r="B70" s="2">
+        <v>-6.2866999999999997</v>
+      </c>
+      <c r="C70" s="2">
+        <v>42</v>
+      </c>
       <c r="D70" s="2" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="2"/>
-      <c r="B71" s="2"/>
-      <c r="C71" s="2"/>
+      <c r="A71" s="2">
+        <v>106.85</v>
+      </c>
+      <c r="B71" s="2">
+        <v>-6.7</v>
+      </c>
+      <c r="C71" s="2">
+        <v>920</v>
+      </c>
       <c r="D71" s="2" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="2"/>
-      <c r="B72" s="2"/>
-      <c r="C72" s="2"/>
+      <c r="A72" s="2">
+        <v>96.247960000000006</v>
+      </c>
+      <c r="B72" s="2">
+        <v>4.0492800000000004</v>
+      </c>
+      <c r="C72" s="2">
+        <v>3</v>
+      </c>
       <c r="D72" s="2" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="2"/>
-      <c r="B73" s="2"/>
-      <c r="C73" s="2"/>
+      <c r="A73" s="2">
+        <v>104.58</v>
+      </c>
+      <c r="B73" s="2">
+        <v>-0.48</v>
+      </c>
+      <c r="C73" s="2">
+        <v>29</v>
+      </c>
       <c r="D73" s="2" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="2"/>
-      <c r="B74" s="2"/>
-      <c r="C74" s="2"/>
+      <c r="A74" s="2">
+        <v>123.07395</v>
+      </c>
+      <c r="B74" s="2">
+        <v>-10.76662</v>
+      </c>
+      <c r="C74" s="2">
+        <v>141</v>
+      </c>
       <c r="D74" s="2" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="2"/>
-      <c r="B75" s="2"/>
-      <c r="C75" s="2"/>
+      <c r="A75" s="2">
+        <v>106.13</v>
+      </c>
+      <c r="B75" s="2">
+        <v>-2.17</v>
+      </c>
+      <c r="C75" s="2">
+        <v>0</v>
+      </c>
       <c r="D75" s="2" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="2"/>
-      <c r="B76" s="2"/>
-      <c r="C76" s="2"/>
+      <c r="A76" s="2">
+        <v>101.45</v>
+      </c>
+      <c r="B76" s="2">
+        <v>-2.0830000000000002</v>
+      </c>
+      <c r="C76" s="2">
+        <v>782</v>
+      </c>
       <c r="D76" s="2" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="2"/>
-      <c r="B77" s="2"/>
-      <c r="C77" s="2"/>
+      <c r="A77" s="2">
+        <v>122.85250000000001</v>
+      </c>
+      <c r="B77" s="2">
+        <v>0.63849999999999996</v>
+      </c>
+      <c r="C77" s="2">
+        <v>33</v>
+      </c>
       <c r="D77" s="2" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="2"/>
-      <c r="B78" s="2"/>
-      <c r="C78" s="2"/>
+      <c r="A78" s="2">
+        <v>140.72</v>
+      </c>
+      <c r="B78" s="2">
+        <v>-2.5299999999999998</v>
+      </c>
+      <c r="C78" s="2">
+        <v>3</v>
+      </c>
       <c r="D78" s="2" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="2"/>
-      <c r="B79" s="2"/>
-      <c r="C79" s="2"/>
+      <c r="A79" s="2">
+        <v>131.28575000000001</v>
+      </c>
+      <c r="B79" s="2">
+        <v>-0.89117999999999997</v>
+      </c>
+      <c r="C79" s="2">
+        <v>0</v>
+      </c>
       <c r="D79" s="2" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="2"/>
-      <c r="B80" s="2"/>
-      <c r="C80" s="2"/>
+      <c r="A80" s="2">
+        <v>123.67039</v>
+      </c>
+      <c r="B80" s="2">
+        <v>-10.1678</v>
+      </c>
+      <c r="C80" s="2">
+        <v>102</v>
+      </c>
       <c r="D80" s="2" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="2"/>
-      <c r="B81" s="2"/>
-      <c r="C81" s="2"/>
+      <c r="A81" s="2">
+        <v>126</v>
+      </c>
+      <c r="B81" s="2">
+        <v>-2.0499999999999998</v>
+      </c>
+      <c r="C81" s="2">
+        <v>2</v>
+      </c>
       <c r="D81" s="2" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" s="2"/>
-      <c r="B82" s="2"/>
-      <c r="C82" s="2"/>
+      <c r="A82" s="2">
+        <v>136.38</v>
+      </c>
+      <c r="B82" s="2">
+        <v>-3.9268800000000001</v>
+      </c>
+      <c r="C82" s="2">
+        <v>1650</v>
+      </c>
       <c r="D82" s="2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" s="2"/>
-      <c r="B83" s="2"/>
-      <c r="C83" s="2"/>
+      <c r="A83" s="2">
+        <v>102.33669999999999</v>
+      </c>
+      <c r="B83" s="2">
+        <v>-3.8582000000000001</v>
+      </c>
+      <c r="C83" s="2">
+        <v>24</v>
+      </c>
       <c r="D83" s="2" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" s="2"/>
-      <c r="B84" s="2"/>
-      <c r="C84" s="2"/>
+      <c r="A84" s="2">
+        <v>98.88</v>
+      </c>
+      <c r="B84" s="2">
+        <v>1.55</v>
+      </c>
+      <c r="C84" s="2">
+        <v>10</v>
+      </c>
       <c r="D84" s="2" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" s="2"/>
-      <c r="B85" s="2"/>
-      <c r="C85" s="2"/>
+      <c r="A85" s="2">
+        <v>136.10361</v>
+      </c>
+      <c r="B85" s="2">
+        <v>-1.19069</v>
+      </c>
+      <c r="C85" s="2">
+        <v>3</v>
+      </c>
       <c r="D85" s="2" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" s="2"/>
-      <c r="B86" s="2"/>
-      <c r="C86" s="2"/>
+      <c r="A86" s="2">
+        <v>120.45</v>
+      </c>
+      <c r="B86" s="2">
+        <v>-8.6300000000000008</v>
+      </c>
+      <c r="C86" s="2">
+        <v>1070</v>
+      </c>
       <c r="D86" s="2" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" s="2"/>
-      <c r="B87" s="2"/>
-      <c r="C87" s="2"/>
+      <c r="A87" s="2">
+        <v>122.23752</v>
+      </c>
+      <c r="B87" s="2">
+        <v>-8.6357700000000008</v>
+      </c>
+      <c r="C87" s="2">
+        <v>28</v>
+      </c>
       <c r="D87" s="2" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" s="2"/>
-      <c r="B88" s="2"/>
-      <c r="C88" s="2"/>
+      <c r="A88" s="2">
+        <v>127.79049999999999</v>
+      </c>
+      <c r="B88" s="2">
+        <v>1.8409199999999999</v>
+      </c>
+      <c r="C88" s="2">
+        <v>130</v>
+      </c>
       <c r="D88" s="2" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" s="2"/>
-      <c r="B89" s="2"/>
-      <c r="C89" s="2"/>
+      <c r="A89" s="2">
+        <v>122.9986</v>
+      </c>
+      <c r="B89" s="2">
+        <v>-8.2751999999999999</v>
+      </c>
+      <c r="C89" s="2">
+        <v>9</v>
+      </c>
       <c r="D89" s="2" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" s="2"/>
-      <c r="B90" s="2"/>
-      <c r="C90" s="2"/>
+      <c r="A90" s="2">
+        <v>116.17</v>
+      </c>
+      <c r="B90" s="2">
+        <v>-3.3</v>
+      </c>
+      <c r="C90" s="2">
+        <v>2</v>
+      </c>
       <c r="D90" s="2" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" s="2"/>
-      <c r="B91" s="2"/>
-      <c r="C91" s="2"/>
+      <c r="A91" s="2">
+        <v>107.75</v>
+      </c>
+      <c r="B91" s="2">
+        <v>-2.75</v>
+      </c>
+      <c r="C91" s="2">
+        <v>50</v>
+      </c>
       <c r="D91" s="2" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92" s="2"/>
-      <c r="B92" s="2"/>
-      <c r="C92" s="2"/>
+      <c r="A92" s="2">
+        <v>112.93</v>
+      </c>
+      <c r="B92" s="2">
+        <v>-2.5499999999999998</v>
+      </c>
+      <c r="C92" s="2">
+        <v>3</v>
+      </c>
       <c r="D92" s="2" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" s="2"/>
-      <c r="B93" s="2"/>
-      <c r="C93" s="2"/>
+      <c r="A93" s="2">
+        <v>104.11667</v>
+      </c>
+      <c r="B93" s="2">
+        <v>1.1166700000000001</v>
+      </c>
+      <c r="C93" s="2">
+        <v>26</v>
+      </c>
       <c r="D93" s="2" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94" s="2"/>
-      <c r="B94" s="2"/>
-      <c r="C94" s="2"/>
+      <c r="A94" s="2">
+        <v>115.17</v>
+      </c>
+      <c r="B94" s="2">
+        <v>-8.75</v>
+      </c>
+      <c r="C94" s="2">
+        <v>4</v>
+      </c>
       <c r="D94" s="2" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95" s="2"/>
-      <c r="B95" s="2"/>
-      <c r="C95" s="2"/>
+      <c r="A95" s="2">
+        <v>111.66</v>
+      </c>
+      <c r="B95" s="2">
+        <v>-2.73</v>
+      </c>
+      <c r="C95" s="2">
+        <v>22</v>
+      </c>
       <c r="D95" s="2" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96" s="2"/>
-      <c r="B96" s="2"/>
-      <c r="C96" s="2"/>
+      <c r="A96" s="2">
+        <v>102.32</v>
+      </c>
+      <c r="B96" s="2">
+        <v>-0.33</v>
+      </c>
+      <c r="C96" s="2">
+        <v>19</v>
+      </c>
       <c r="D96" s="2" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" s="2"/>
-      <c r="B97" s="2"/>
-      <c r="C97" s="2"/>
+      <c r="A97" s="2">
+        <v>112.7833</v>
+      </c>
+      <c r="B97" s="2">
+        <v>-7.3845999999999998</v>
+      </c>
+      <c r="C97" s="2">
+        <v>3</v>
+      </c>
       <c r="D97" s="2" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98" s="2"/>
-      <c r="B98" s="2"/>
-      <c r="C98" s="2"/>
+      <c r="A98" s="2">
+        <v>117.57</v>
+      </c>
+      <c r="B98" s="2">
+        <v>3.33</v>
+      </c>
+      <c r="C98" s="2">
+        <v>6</v>
+      </c>
       <c r="D98" s="2" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99" s="2"/>
-      <c r="B99" s="2"/>
-      <c r="C99" s="2"/>
+      <c r="A99" s="2">
+        <v>117.43375</v>
+      </c>
+      <c r="B99" s="2">
+        <v>2.1456200000000001</v>
+      </c>
+      <c r="C99" s="2">
+        <v>13</v>
+      </c>
       <c r="D99" s="2" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100" s="2"/>
-      <c r="B100" s="2"/>
-      <c r="C100" s="2"/>
+      <c r="A100" s="2">
+        <v>132.7362</v>
+      </c>
+      <c r="B100" s="2">
+        <v>-5.6637000000000004</v>
+      </c>
+      <c r="C100" s="2">
+        <v>10</v>
+      </c>
       <c r="D100" s="2" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A101" s="2"/>
-      <c r="B101" s="2"/>
-      <c r="C101" s="2"/>
-      <c r="D101" s="2"/>
+      <c r="A101" s="2">
+        <v>120.65701</v>
+      </c>
+      <c r="B101" s="2">
+        <v>-1.42038</v>
+      </c>
+      <c r="C101" s="2">
+        <v>10</v>
+      </c>
+      <c r="D101" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" s="2">
+        <v>106.84</v>
+      </c>
+      <c r="B102" s="2">
+        <v>-6.1555900000000001</v>
+      </c>
+      <c r="C102" s="2">
+        <v>4</v>
+      </c>
+      <c r="D102" s="4" t="s">
+        <v>104</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Stasiun.xlsx
+++ b/Stasiun.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\OneDrive\Documents\RNN Jaya\RNN-Jaya\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/37a0ce551f5721cc/Documents/RNN Jaya/RNN-Jaya/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A48C37F7-52DF-4CF0-BB9C-6C357F6DC1CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{A48C37F7-52DF-4CF0-BB9C-6C357F6DC1CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D2819C60-6022-4143-9279-A93B52E28988}"/>
   <bookViews>
     <workbookView xWindow="10140" yWindow="0" windowWidth="10455" windowHeight="11625" xr2:uid="{46E7E1EB-F503-4008-B683-FDFB05134706}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="123">
   <si>
     <t>Elevasi</t>
   </si>
@@ -340,6 +340,60 @@
   </si>
   <si>
     <t>Stasiun Meteorologi Kemayoran</t>
+  </si>
+  <si>
+    <t>Stasiun Meteorologi</t>
+  </si>
+  <si>
+    <t>Stasiun Meteorologi Kertajati</t>
+  </si>
+  <si>
+    <t>Stasiun Meteorologi Komodo</t>
+  </si>
+  <si>
+    <t>Stasiun Meteorologi Kualanamu</t>
+  </si>
+  <si>
+    <t>Stasiun Meteorologi Kuffar</t>
+  </si>
+  <si>
+    <t>Stasiun Maimun Saleh</t>
+  </si>
+  <si>
+    <t>Stasiun Meteorologi Mali</t>
+  </si>
+  <si>
+    <t>Stasiun Meteorologi Malikussaleh</t>
+  </si>
+  <si>
+    <t>Stasiun Meteorologi Mararena</t>
+  </si>
+  <si>
+    <t>Stasiun Meteorologi Maritim</t>
+  </si>
+  <si>
+    <t>Stasiun Meteorologi Maritim Ambon</t>
+  </si>
+  <si>
+    <t>Stasiun Meteorologi Maritim Belawan</t>
+  </si>
+  <si>
+    <t>Stasiun Meteorologi Maritim Bitung</t>
+  </si>
+  <si>
+    <t>Stasiun Meteorologi Maritim Kendari</t>
+  </si>
+  <si>
+    <t>Stasiun Meteorologi Maritim Panjang</t>
+  </si>
+  <si>
+    <t>Stasiun Meteorologi Maritim Paotere</t>
+  </si>
+  <si>
+    <t>Stasiun Meteorologi Maritim Pontianak</t>
+  </si>
+  <si>
+    <t>Stasiun Meteorologi Maritim Serang</t>
   </si>
 </sst>
 </file>
@@ -740,10 +794,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2832B855-74B0-47B9-BC56-39E57D0F7FFB}">
-  <dimension ref="A1:D102"/>
+  <dimension ref="A1:D190"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="B108" workbookViewId="0">
+      <selection activeCell="D119" sqref="D111:D120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2171,6 +2225,692 @@
         <v>104</v>
       </c>
     </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" s="2"/>
+      <c r="B103" s="2"/>
+      <c r="C103" s="2"/>
+      <c r="D103" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" s="2"/>
+      <c r="B104" s="2"/>
+      <c r="C104" s="2"/>
+      <c r="D104" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" s="2"/>
+      <c r="B105" s="2"/>
+      <c r="C105" s="2"/>
+      <c r="D105" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" s="2"/>
+      <c r="B106" s="2"/>
+      <c r="C106" s="2"/>
+      <c r="D106" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" s="2"/>
+      <c r="B107" s="2"/>
+      <c r="C107" s="2"/>
+      <c r="D107" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" s="2"/>
+      <c r="B108" s="2"/>
+      <c r="C108" s="2"/>
+      <c r="D108" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" s="2"/>
+      <c r="B109" s="2"/>
+      <c r="C109" s="2"/>
+      <c r="D109" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" s="2"/>
+      <c r="B110" s="2"/>
+      <c r="C110" s="2"/>
+      <c r="D110" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" s="2"/>
+      <c r="B111" s="2"/>
+      <c r="C111" s="2"/>
+      <c r="D111" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" s="2"/>
+      <c r="B112" s="2"/>
+      <c r="C112" s="2"/>
+      <c r="D112" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" s="2"/>
+      <c r="B113" s="2"/>
+      <c r="C113" s="2"/>
+      <c r="D113" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" s="2"/>
+      <c r="B114" s="2"/>
+      <c r="C114" s="2"/>
+      <c r="D114" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" s="2"/>
+      <c r="B115" s="2"/>
+      <c r="C115" s="2"/>
+      <c r="D115" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" s="2"/>
+      <c r="B116" s="2"/>
+      <c r="C116" s="2"/>
+      <c r="D116" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" s="2"/>
+      <c r="B117" s="2"/>
+      <c r="C117" s="2"/>
+      <c r="D117" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118" s="2"/>
+      <c r="B118" s="2"/>
+      <c r="C118" s="2"/>
+      <c r="D118" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119" s="2"/>
+      <c r="B119" s="2"/>
+      <c r="C119" s="2"/>
+      <c r="D119" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120" s="2"/>
+      <c r="B120" s="2"/>
+      <c r="C120" s="2"/>
+      <c r="D120" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121" s="2"/>
+      <c r="B121" s="2"/>
+      <c r="C121" s="2"/>
+      <c r="D121" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122" s="2"/>
+      <c r="B122" s="2"/>
+      <c r="C122" s="2"/>
+      <c r="D122" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123" s="2"/>
+      <c r="B123" s="2"/>
+      <c r="C123" s="2"/>
+      <c r="D123" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124" s="2"/>
+      <c r="B124" s="2"/>
+      <c r="C124" s="2"/>
+      <c r="D124" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125" s="2"/>
+      <c r="B125" s="2"/>
+      <c r="C125" s="2"/>
+      <c r="D125" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126" s="2"/>
+      <c r="B126" s="2"/>
+      <c r="C126" s="2"/>
+      <c r="D126" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127" s="2"/>
+      <c r="B127" s="2"/>
+      <c r="C127" s="2"/>
+      <c r="D127" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128" s="2"/>
+      <c r="B128" s="2"/>
+      <c r="C128" s="2"/>
+      <c r="D128" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129" s="2"/>
+      <c r="B129" s="2"/>
+      <c r="C129" s="2"/>
+      <c r="D129" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130" s="2"/>
+      <c r="B130" s="2"/>
+      <c r="C130" s="2"/>
+      <c r="D130" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131" s="2"/>
+      <c r="B131" s="2"/>
+      <c r="C131" s="2"/>
+      <c r="D131" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132" s="2"/>
+      <c r="B132" s="2"/>
+      <c r="C132" s="2"/>
+      <c r="D132" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133" s="2"/>
+      <c r="B133" s="2"/>
+      <c r="C133" s="2"/>
+      <c r="D133" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134" s="2"/>
+      <c r="B134" s="2"/>
+      <c r="C134" s="2"/>
+      <c r="D134" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135" s="2"/>
+      <c r="B135" s="2"/>
+      <c r="C135" s="2"/>
+      <c r="D135" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136" s="2"/>
+      <c r="B136" s="2"/>
+      <c r="C136" s="2"/>
+      <c r="D136" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137" s="2"/>
+      <c r="B137" s="2"/>
+      <c r="C137" s="2"/>
+      <c r="D137" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138" s="2"/>
+      <c r="B138" s="2"/>
+      <c r="C138" s="2"/>
+      <c r="D138" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A139" s="2"/>
+      <c r="B139" s="2"/>
+      <c r="C139" s="2"/>
+      <c r="D139" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A140" s="2"/>
+      <c r="B140" s="2"/>
+      <c r="C140" s="2"/>
+      <c r="D140" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A141" s="2"/>
+      <c r="B141" s="2"/>
+      <c r="C141" s="2"/>
+      <c r="D141" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A142" s="2"/>
+      <c r="B142" s="2"/>
+      <c r="C142" s="2"/>
+      <c r="D142" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A143" s="2"/>
+      <c r="B143" s="2"/>
+      <c r="C143" s="2"/>
+      <c r="D143" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A144" s="2"/>
+      <c r="B144" s="2"/>
+      <c r="C144" s="2"/>
+      <c r="D144" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A145" s="2"/>
+      <c r="B145" s="2"/>
+      <c r="C145" s="2"/>
+      <c r="D145" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A146" s="2"/>
+      <c r="B146" s="2"/>
+      <c r="C146" s="2"/>
+      <c r="D146" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A147" s="2"/>
+      <c r="B147" s="2"/>
+      <c r="C147" s="2"/>
+      <c r="D147" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A148" s="2"/>
+      <c r="B148" s="2"/>
+      <c r="C148" s="2"/>
+      <c r="D148" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A149" s="2"/>
+      <c r="B149" s="2"/>
+      <c r="C149" s="2"/>
+      <c r="D149" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A150" s="2"/>
+      <c r="B150" s="2"/>
+      <c r="C150" s="2"/>
+      <c r="D150" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A151" s="2"/>
+      <c r="B151" s="2"/>
+      <c r="C151" s="2"/>
+      <c r="D151" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A152" s="2"/>
+      <c r="B152" s="2"/>
+      <c r="C152" s="2"/>
+      <c r="D152" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A153" s="2"/>
+      <c r="B153" s="2"/>
+      <c r="C153" s="2"/>
+      <c r="D153" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A154" s="2"/>
+      <c r="B154" s="2"/>
+      <c r="C154" s="2"/>
+      <c r="D154" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A155" s="2"/>
+      <c r="B155" s="2"/>
+      <c r="C155" s="2"/>
+      <c r="D155" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A156" s="2"/>
+      <c r="B156" s="2"/>
+      <c r="C156" s="2"/>
+      <c r="D156" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A157" s="2"/>
+      <c r="B157" s="2"/>
+      <c r="C157" s="2"/>
+      <c r="D157" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A158" s="2"/>
+      <c r="B158" s="2"/>
+      <c r="C158" s="2"/>
+      <c r="D158" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A159" s="2"/>
+      <c r="B159" s="2"/>
+      <c r="C159" s="2"/>
+      <c r="D159" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A160" s="2"/>
+      <c r="B160" s="2"/>
+      <c r="C160" s="2"/>
+      <c r="D160" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A161" s="2"/>
+      <c r="B161" s="2"/>
+      <c r="C161" s="2"/>
+      <c r="D161" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A162" s="2"/>
+      <c r="B162" s="2"/>
+      <c r="C162" s="2"/>
+      <c r="D162" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A163" s="2"/>
+      <c r="B163" s="2"/>
+      <c r="C163" s="2"/>
+      <c r="D163" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A164" s="2"/>
+      <c r="B164" s="2"/>
+      <c r="C164" s="2"/>
+      <c r="D164" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A165" s="2"/>
+      <c r="B165" s="2"/>
+      <c r="C165" s="2"/>
+      <c r="D165" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A166" s="2"/>
+      <c r="B166" s="2"/>
+      <c r="C166" s="2"/>
+      <c r="D166" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A167" s="2"/>
+      <c r="B167" s="2"/>
+      <c r="C167" s="2"/>
+      <c r="D167" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A168" s="2"/>
+      <c r="B168" s="2"/>
+      <c r="C168" s="2"/>
+      <c r="D168" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A169" s="2"/>
+      <c r="B169" s="2"/>
+      <c r="C169" s="2"/>
+      <c r="D169" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A170" s="2"/>
+      <c r="B170" s="2"/>
+      <c r="C170" s="2"/>
+      <c r="D170" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A171" s="2"/>
+      <c r="B171" s="2"/>
+      <c r="C171" s="2"/>
+      <c r="D171" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A172" s="2"/>
+      <c r="B172" s="2"/>
+      <c r="C172" s="2"/>
+      <c r="D172" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A173" s="2"/>
+      <c r="B173" s="2"/>
+      <c r="C173" s="2"/>
+      <c r="D173" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A174" s="2"/>
+      <c r="B174" s="2"/>
+      <c r="C174" s="2"/>
+      <c r="D174" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A175" s="2"/>
+      <c r="B175" s="2"/>
+      <c r="C175" s="2"/>
+      <c r="D175" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A176" s="2"/>
+      <c r="B176" s="2"/>
+      <c r="C176" s="2"/>
+      <c r="D176" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A177" s="2"/>
+      <c r="B177" s="2"/>
+      <c r="C177" s="2"/>
+      <c r="D177" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A178" s="2"/>
+      <c r="B178" s="2"/>
+      <c r="C178" s="2"/>
+      <c r="D178" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A179" s="2"/>
+      <c r="B179" s="2"/>
+      <c r="C179" s="2"/>
+      <c r="D179" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A180" s="2"/>
+      <c r="B180" s="2"/>
+      <c r="C180" s="2"/>
+      <c r="D180" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A181" s="2"/>
+      <c r="B181" s="2"/>
+      <c r="C181" s="2"/>
+      <c r="D181" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A182" s="2"/>
+      <c r="B182" s="2"/>
+      <c r="C182" s="2"/>
+      <c r="D182" s="2"/>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A183" s="2"/>
+      <c r="B183" s="2"/>
+      <c r="C183" s="2"/>
+      <c r="D183" s="2"/>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A184" s="2"/>
+      <c r="B184" s="2"/>
+      <c r="C184" s="2"/>
+      <c r="D184" s="2"/>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A185" s="2"/>
+      <c r="B185" s="2"/>
+      <c r="C185" s="2"/>
+      <c r="D185" s="2"/>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A186" s="2"/>
+      <c r="B186" s="2"/>
+      <c r="C186" s="2"/>
+      <c r="D186" s="2"/>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A187" s="2"/>
+      <c r="B187" s="2"/>
+      <c r="C187" s="2"/>
+      <c r="D187" s="2"/>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A188" s="2"/>
+      <c r="B188" s="2"/>
+      <c r="C188" s="2"/>
+      <c r="D188" s="2"/>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A189" s="2"/>
+      <c r="B189" s="2"/>
+      <c r="C189" s="2"/>
+      <c r="D189" s="2"/>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A190" s="2"/>
+      <c r="B190" s="2"/>
+      <c r="C190" s="2"/>
+      <c r="D190" s="2"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
